--- a/biology/Médecine/Maurice_Porot/Maurice_Porot.xlsx
+++ b/biology/Médecine/Maurice_Porot/Maurice_Porot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Porot est un psychiatre français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Porot est un psychiatre français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du psychiatre Antoine Porot.
 Il enseigne à Alger de 1958 à 1962, puis à Clermont-Ferrand 1965 à 1982 (professeur titulaire de la chaire de clinique psychiatrique et de psychologie médicale à la Faculté de médecine de Clermont-Ferrand).
@@ -543,13 +557,15 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Conseils aux parents d'un adolescent difficile.
 L'enfant et les relations familiales.
 Beethoven et les malentendus, 1986, avec Jacques Miermont.
-Problèmes psychiques posés par les greffes et prothèses, 1990[2].
-L'enfant de remplacement, 1994[3].</t>
+Problèmes psychiques posés par les greffes et prothèses, 1990.
+L'enfant de remplacement, 1994.</t>
         </is>
       </c>
     </row>
